--- a/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,212 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bow</t>
+          <t>bow_mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bow_chi</t>
+          <t>bow_std</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>bow_pca</t>
+          <t>bow_fold0</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tfidf</t>
+          <t>bow_fold1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi</t>
+          <t>bow_fold2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca</t>
+          <t>bow_fold3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bow_fold4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_fold0</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_fold1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_fold2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_fold3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bow_chi_fold4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_mean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_std</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_fold0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_fold1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_fold2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_fold3</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>bow_pca_fold4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_mean</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_std</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_fold0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_fold1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_fold2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_fold3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_fold4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_mean</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_std</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_fold0</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_fold1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_fold2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_fold3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_chi_fold4</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_mean</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_std</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_fold0</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_fold1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_fold2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_fold3</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>tfidf_pca_fold4</t>
         </is>
       </c>
     </row>
@@ -472,22 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0515359481375254</v>
+        <v>0.6288039736425304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06384091427391789</v>
+        <v>0.05299816745460949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05333862157443089</v>
+        <v>0.691957755118101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03041549419946092</v>
+        <v>0.643460865216304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06495352425344626</v>
+        <v>0.5323414812662125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04784641486547811</v>
+        <v>0.6246791107462266</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6515806558658082</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6839428848500868</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.06710704756878048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7704883683022967</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6930825336489632</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5672624866173253</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6708989657226716</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.7179820699591771</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7003135356634751</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.04768924335706743</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.7372858391437858</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6947916218401173</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6096824598004771</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.7319905245128486</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7278172330201467</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.783075680822123</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.02892438552933009</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.789744945156601</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7615011324688745</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.7439413704269392</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.8285552591155307</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.791635696942669</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.7013670086775078</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.04955338772318588</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6733460435991561</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.7598816466130264</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6254646351420545</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6988086544839379</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.7493340635493642</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6951014546866139</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.05237976875740519</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6424149537203991</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7529471596834026</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.622506326807402</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.7237030995615803</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.7339357336602852</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03552666933991234</v>
+        <v>0.7963449218203591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02209113554259618</v>
+        <v>0.03570807518483041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02779162098024431</v>
+        <v>0.7934346660086152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03042745706123063</v>
+        <v>0.8276991071558135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03871521763229715</v>
+        <v>0.7293531351359832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04182833738033816</v>
+        <v>0.8243627199983937</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8068749808029902</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.808185876519412</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.03299875917861357</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8127068616750486</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8611519708293903</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7635511441963055</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8182505085730892</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7852688973232267</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8270849809206856</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.02144599241033417</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8149415580148976</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8506950945060473</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.8264728844358805</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8493656880753655</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.7939496795712374</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8233156931576824</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03087475550152605</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8075669656914505</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.8694130963081328</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7861409796893668</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.8489548557211816</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.80450256837828</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8463943668722983</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.04124608169098394</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.837309346841611</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9125667410787076</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.7966315607681833</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.8704964062949901</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.8149677793779996</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.8441787138429866</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.03506824485766261</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.8477710233029382</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.891734609476545</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.7959237507624606</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8704964062949901</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.8149677793779996</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03347225322809019</v>
+        <v>0.8148748851036117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0174583460496057</v>
+        <v>0.03551949285612148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03669082805473493</v>
+        <v>0.8727848606965797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02531637020092824</v>
+        <v>0.8140718098273277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02935342831467983</v>
+        <v>0.766268750139718</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02975888649215965</v>
+        <v>0.7939620626481366</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8272869422062971</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8628879067293121</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01670364145304078</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.885390994241485</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8706351270018502</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8384941126876612</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8703626122980962</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8495566874174684</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8172278659785916</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03898573887812667</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8629210841416889</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8573813594187109</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.7652491200878299</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7826309787364075</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8179567875083218</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8363400693236258</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.02606131233795991</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.8384900768818166</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8586830006184845</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.785811105261186</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.8492648645450004</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.8494512993116421</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.8493243825931355</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0298423333314481</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.8390399861603538</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.8802724240289277</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.7963170954681991</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.8601836650223746</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.8708087422858221</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.8470536906356572</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.02936290624986697</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.8390399861603538</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.8802724240289277</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.7963170954681991</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.8708436536110559</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.8487952939097486</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +1051,103 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02379198786650145</v>
+        <v>0.8068330082309039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01914160547666649</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.03182372841646391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7999197228859307</v>
+      </c>
       <c r="E5" t="n">
-        <v>0.03076264711402935</v>
+        <v>0.8690876187145756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02802635685285363</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>0.7851138980171238</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7828326033694448</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.797211198167445</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8410518091077789</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02275147761984232</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8428487648245655</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8803463633902952</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8172971979423592</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8196104970298519</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8451562223518226</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.8196037335241346</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0354871501564876</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.8317763491458872</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8810674990215648</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.78234548474517</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.8140807782920968</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7887485564159546</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.8464793942384269</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.02862504428740105</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.8406245640589473</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.8923149822554657</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.8051387835514507</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.8583801705668179</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.835938470759453</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -568,22 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02703933458175955</v>
+        <v>0.828597400257625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0230804306031181</v>
+        <v>0.03900002579915354</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03670123421437085</v>
+        <v>0.8300276259959096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0193166233641649</v>
+        <v>0.8702581231293904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01795551646603981</v>
+        <v>0.7554549456077471</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02990877840260368</v>
+        <v>0.8493669980688078</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8378793084862695</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8537717059323058</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.03681251497676249</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8727616125016946</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8918110084907883</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7856275630469179</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8707922901471289</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8478660554749995</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8265979416516988</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.03590617620169628</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8458389483806813</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8693820618801864</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7628201047555886</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8368663594470045</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8180822337950329</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8365758503457206</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.02610921897296363</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.850724119435008</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8595957833214035</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.7861223506384797</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.8479386975224644</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8384983008112474</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.8491524697875503</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.02289179119195686</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.8719987667734852</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.8705752899301287</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.8159769283294067</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.8281601364872183</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.8590512274175126</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.8580093773293817</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.03438801791286557</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.871234563842702</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9137678484442325</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.8177778629391533</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.8609082673598802</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.8263583440609404</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,130 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6288039736425304</v>
+        <v>0.6109102501821633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05299816745460949</v>
+        <v>0.05756199034196108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.691957755118101</v>
+        <v>0.5712892319620031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.643460865216304</v>
+        <v>0.5914397993824438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5323414812662125</v>
+        <v>0.5852399816746165</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6246791107462266</v>
+        <v>0.5812954546253432</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6515806558658082</v>
+        <v>0.7252867832664098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6839428848500868</v>
+        <v>0.677086542942525</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06710704756878048</v>
+        <v>0.02873757055082129</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7704883683022967</v>
+        <v>0.6645249064177898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6930825336489632</v>
+        <v>0.6338127682213704</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5672624866173253</v>
+        <v>0.6922143266360901</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6708989657226716</v>
+        <v>0.6746212835005254</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7179820699591771</v>
+        <v>0.7202594299368493</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7003135356634751</v>
+        <v>0.6754991818369545</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04768924335706743</v>
+        <v>0.05157617898724755</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7372858391437858</v>
+        <v>0.6958576927991821</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6947916218401173</v>
+        <v>0.6092563056730569</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6096824598004771</v>
+        <v>0.7354036063713483</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7319905245128486</v>
+        <v>0.6194427329694168</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7278172330201467</v>
+        <v>0.7175355713717684</v>
       </c>
       <c r="W2" t="n">
-        <v>0.783075680822123</v>
+        <v>0.791567739767727</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02892438552933009</v>
+        <v>0.03740029654046373</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.789744945156601</v>
+        <v>0.8194955649548281</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7615011324688745</v>
+        <v>0.7271344102551904</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7439413704269392</v>
+        <v>0.782035349224515</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8285552591155307</v>
+        <v>0.8359371343095949</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.791635696942669</v>
+        <v>0.7932362400945066</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7013670086775078</v>
+        <v>0.7108778336318742</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04955338772318588</v>
+        <v>0.03707655289613247</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6733460435991561</v>
+        <v>0.6545585673233221</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7598816466130264</v>
+        <v>0.729531490015361</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6254646351420545</v>
+        <v>0.7014149064869292</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6988086544839379</v>
+        <v>0.7672555043522785</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7493340635493642</v>
+        <v>0.7016286999814797</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6951014546866139</v>
+        <v>0.6977995982724715</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.05237976875740519</v>
+        <v>0.04350338369607885</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6424149537203991</v>
+        <v>0.6378493505432825</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7529471596834026</v>
+        <v>0.7098914285178592</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.622506326807402</v>
+        <v>0.6669494560070145</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7237030995615803</v>
+        <v>0.7660781537375686</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7339357336602852</v>
+        <v>0.7082296025566325</v>
       </c>
     </row>
     <row r="3">
@@ -785,130 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7963449218203591</v>
+        <v>0.8008134154112974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03570807518483041</v>
+        <v>0.02802671679896426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7934346660086152</v>
+        <v>0.7996874646398039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8276991071558135</v>
+        <v>0.7746018616986359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7293531351359832</v>
+        <v>0.8072219710693352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8243627199983937</v>
+        <v>0.7726832598587123</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8068749808029902</v>
+        <v>0.8498725197899992</v>
       </c>
       <c r="I3" t="n">
-        <v>0.808185876519412</v>
+        <v>0.8089305373102448</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03299875917861357</v>
+        <v>0.04992339510573657</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8127068616750486</v>
+        <v>0.7487308543727752</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8611519708293903</v>
+        <v>0.7691540769726628</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7635511441963055</v>
+        <v>0.8301849850236948</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8182505085730892</v>
+        <v>0.8052492310556826</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7852688973232267</v>
+        <v>0.8913335391264083</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8270849809206856</v>
+        <v>0.7993243619866995</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02144599241033417</v>
+        <v>0.05106254769302052</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8149415580148976</v>
+        <v>0.788865582459477</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8506950945060473</v>
+        <v>0.7239145920934016</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8264728844358805</v>
+        <v>0.8389012969213979</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8493656880753655</v>
+        <v>0.7744956507053281</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7939496795712374</v>
+        <v>0.8704446877538931</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8233156931576824</v>
+        <v>0.8307171212580075</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03087475550152605</v>
+        <v>0.04124691612600012</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8075669656914505</v>
+        <v>0.8627762972558537</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8694130963081328</v>
+        <v>0.75426020247752</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7861409796893668</v>
+        <v>0.8387134088322543</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8489548557211816</v>
+        <v>0.8276268217751301</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.80450256837828</v>
+        <v>0.8702088759492792</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8463943668722983</v>
+        <v>0.8475142028388465</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.04124608169098394</v>
+        <v>0.03345178412042464</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.837309346841611</v>
+        <v>0.8511172266491415</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9125667410787076</v>
+        <v>0.7852325310429774</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7966315607681833</v>
+        <v>0.8709406499729081</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.8704964062949901</v>
+        <v>0.84881603261981</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.8149677793779996</v>
+        <v>0.8814645739093956</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.8441787138429866</v>
+        <v>0.8477463511861221</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.03506824485766261</v>
+        <v>0.02460032727516325</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8477710233029382</v>
+        <v>0.8406197842886998</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.891734609476545</v>
+        <v>0.8068570687166512</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7959237507624606</v>
+        <v>0.8612183458760958</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8704964062949901</v>
+        <v>0.84881603261981</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8149677793779996</v>
+        <v>0.8812205244293529</v>
       </c>
     </row>
     <row r="4">
@@ -918,130 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8148748851036117</v>
+        <v>0.8407444217568611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03551949285612148</v>
+        <v>0.04745550508411889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8727848606965797</v>
+        <v>0.8364762937870311</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8140718098273277</v>
+        <v>0.7874276261373035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.766268750139718</v>
+        <v>0.8712616943516773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7939620626481366</v>
+        <v>0.7946896811922279</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8272869422062971</v>
+        <v>0.9138668133160659</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8628879067293121</v>
+        <v>0.8452030091656443</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01670364145304078</v>
+        <v>0.02370525090879799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.885390994241485</v>
+        <v>0.8710029809864569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8706351270018502</v>
+        <v>0.8085731311537764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8384941126876612</v>
+        <v>0.8595895144282241</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8703626122980962</v>
+        <v>0.8262635345247462</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8495566874174684</v>
+        <v>0.860585884735018</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8172278659785916</v>
+        <v>0.8413400401085502</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03898573887812667</v>
+        <v>0.0359302007712412</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8629210841416889</v>
+        <v>0.8508379747420525</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8573813594187109</v>
+        <v>0.8171543641252531</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7652491200878299</v>
+        <v>0.8386922641591573</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7826309787364075</v>
+        <v>0.7969867267454821</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8179567875083218</v>
+        <v>0.9030288707708062</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8363400693236258</v>
+        <v>0.8296821578910329</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02606131233795991</v>
+        <v>0.0386187623816063</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8384900768818166</v>
+        <v>0.8076050862165084</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8586830006184845</v>
+        <v>0.7744879124305382</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.785811105261186</v>
+        <v>0.8383175867046836</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8492648645450004</v>
+        <v>0.8366758545768817</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8494512993116421</v>
+        <v>0.8913243495265526</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8493243825931355</v>
+        <v>0.8366381363445029</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0298423333314481</v>
+        <v>0.04098591940013351</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8390399861603538</v>
+        <v>0.8079261164367548</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.8802724240289277</v>
+        <v>0.7744879124305382</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7963170954681991</v>
+        <v>0.8605254195930829</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8601836650223746</v>
+        <v>0.8489268837355859</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8708087422858221</v>
+        <v>0.8913243495265526</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.8470536906356572</v>
+        <v>0.8389726415160503</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02936290624986697</v>
+        <v>0.04910721072039775</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8390399861603538</v>
+        <v>0.7971865586777432</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.8802724240289277</v>
+        <v>0.7744879124305382</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7963170954681991</v>
+        <v>0.8605254195930829</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.8708436536110559</v>
+        <v>0.8489268837355859</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8487952939097486</v>
+        <v>0.9137364331433011</v>
       </c>
     </row>
     <row r="5">
@@ -1051,46 +1051,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8068330082309039</v>
+        <v>0.8130234233276126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03182372841646391</v>
+        <v>0.03054598930282494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7999197228859307</v>
+        <v>0.8497879528464635</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8690876187145756</v>
+        <v>0.7646768944959347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7851138980171238</v>
+        <v>0.839085419730581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7828326033694448</v>
+        <v>0.7959801850819846</v>
       </c>
       <c r="H5" t="n">
-        <v>0.797211198167445</v>
+        <v>0.8155866644830991</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8410518091077789</v>
+        <v>0.8459302328161922</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02275147761984232</v>
+        <v>0.03677573643999142</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8428487648245655</v>
+        <v>0.8503147305288963</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8803463633902952</v>
+        <v>0.7762299886611451</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8172971979423592</v>
+        <v>0.8812632802130176</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8196104970298519</v>
+        <v>0.8512515063651203</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8451562223518226</v>
+        <v>0.8705916583127821</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -1100,46 +1100,46 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0.8196037335241346</v>
+        <v>0.8325940159128592</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0354871501564876</v>
+        <v>0.03501595222345227</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8317763491458872</v>
+        <v>0.8694628253418847</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8810674990215648</v>
+        <v>0.7803355461533162</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.78234548474517</v>
+        <v>0.873337167106833</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8140807782920968</v>
+        <v>0.8144893951345564</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7887485564159546</v>
+        <v>0.8253451458277056</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.8464793942384269</v>
+        <v>0.8450343347222546</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02862504428740105</v>
+        <v>0.02895801930486274</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.8406245640589473</v>
+        <v>0.8582585479137204</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8923149822554657</v>
+        <v>0.799326116306677</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.8051387835514507</v>
+        <v>0.8828938441644972</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.8583801705668179</v>
+        <v>0.8268397633545902</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.835938470759453</v>
+        <v>0.8578534018717878</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1152,134 +1152,267 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8209250479713978</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04095143217120851</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7834344745309959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7798217288331752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8186860234872239</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8295761198987005</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8931068931068931</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7954769144201477</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04217387143517815</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7463044706979579</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7779550767666218</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8286864918522833</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7647601028380433</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8596784299458323</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.745153040415213</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0592943515002222</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7030426908698092</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6911444588863943</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7734226269983444</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.7091207405920229</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8490346847294947</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8252049586505205</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.03789922721526721</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.7682101306745358</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7994806042344241</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.8605133589524849</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.827685010707082</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8701356886840756</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.8160231860916902</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.02978961818739197</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.7907374087235542</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.827471572600466</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.8601311972800005</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.7757582242239992</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.8260175276304308</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.8279993175251559</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.03963272949201607</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.793842062193126</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7755846745618579</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.860415762225361</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.8284075778666652</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.8817465107787688</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.828597400257625</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03900002579915354</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8300276259959096</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8702581231293904</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7554549456077471</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8493669980688078</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8378793084862695</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8537717059323058</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.03681251497676249</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8727616125016946</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8918110084907883</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7856275630469179</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8707922901471289</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8478660554749995</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.8265979416516988</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03590617620169628</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.8458389483806813</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8693820618801864</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.7628201047555886</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8368663594470045</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.8180822337950329</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8365758503457206</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.02610921897296363</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.850724119435008</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.8595957833214035</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.7861223506384797</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.8479386975224644</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.8384983008112474</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.8491524697875503</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.02289179119195686</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.8719987667734852</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.8705752899301287</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.8159769283294067</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.8281601364872183</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.8590512274175126</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.8580093773293817</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.03438801791286557</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.871234563842702</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.9137678484442325</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.8177778629391533</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.8609082673598802</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.8263583440609404</v>
+      <c r="B7" t="n">
+        <v>0.8419954741168649</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05187527408279901</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8412209694404542</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.756633968433629</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8701572507599673</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.828003280576886</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9139619013733883</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8640553429086986</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03300848625555496</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8270167032692771</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8279620021555506</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8808416380572578</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9134886291259225</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8252465840462987</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.04704288276541442</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8000304100528066</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.7870787846806523</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8303149589643105</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7942110081329097</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9145977584008144</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8409894062204077</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.03610601058914542</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.8295613789973716</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.775164952190916</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8709061897102811</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.8602180337112425</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.8690964764922278</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.8602931213053973</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.03301800841502055</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.8830129036765</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.805988582364294</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.8611559139784947</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.8481485675034062</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.903159639004291</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.8326997506786389</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.02408657791928399</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.8298341558658932</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.795356024957543</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.8289774741387643</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.8385533994274889</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.8707776990035054</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
@@ -541,107 +541,107 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_mean</t>
+          <t>tf-idf_mean</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_std</t>
+          <t>tf-idf_std</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_fold0</t>
+          <t>tf-idf_fold0</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_fold1</t>
+          <t>tf-idf_fold1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_fold2</t>
+          <t>tf-idf_fold2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_fold3</t>
+          <t>tf-idf_fold3</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_fold4</t>
+          <t>tf-idf_fold4</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_mean</t>
+          <t>tf-idf_chi_mean</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_std</t>
+          <t>tf-idf_chi_std</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_fold0</t>
+          <t>tf-idf_chi_fold0</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_fold1</t>
+          <t>tf-idf_chi_fold1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_fold2</t>
+          <t>tf-idf_chi_fold2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_fold3</t>
+          <t>tf-idf_chi_fold3</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_chi_fold4</t>
+          <t>tf-idf_chi_fold4</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_mean</t>
+          <t>tf-idf_pca_mean</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_std</t>
+          <t>tf-idf_pca_std</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_fold0</t>
+          <t>tf-idf_pca_fold0</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_fold1</t>
+          <t>tf-idf_pca_fold1</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_fold2</t>
+          <t>tf-idf_pca_fold2</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_fold3</t>
+          <t>tf-idf_pca_fold3</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>tfidf_pca_fold4</t>
+          <t>tf-idf_pca_fold4</t>
         </is>
       </c>
     </row>
@@ -1156,130 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8209250479713978</v>
+        <v>0.7992955421404832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04095143217120851</v>
+        <v>0.02456917382021785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7834344745309959</v>
+        <v>0.7759412684688143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7798217288331752</v>
+        <v>0.7789183217979441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8186860234872239</v>
+        <v>0.8179964190150948</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8295761198987005</v>
+        <v>0.7854046051389504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8931068931068931</v>
+        <v>0.8382170962816125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7954769144201477</v>
+        <v>0.8166684721988402</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04217387143517815</v>
+        <v>0.02393855611041602</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7463044706979579</v>
+        <v>0.7977082590310615</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7779550767666218</v>
+        <v>0.7884897360703812</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8286864918522833</v>
+        <v>0.8076054640195676</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7647601028380433</v>
+        <v>0.8397558015274496</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8596784299458323</v>
+        <v>0.8497831003457411</v>
       </c>
       <c r="P6" t="n">
-        <v>0.745153040415213</v>
+        <v>0.7266662225643733</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0592943515002222</v>
+        <v>0.02464296665336834</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7030426908698092</v>
+        <v>0.7378955264593563</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6911444588863943</v>
+        <v>0.6995666599576723</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7734226269983444</v>
+        <v>0.7343827979103733</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7091207405920229</v>
+        <v>0.6984699434137116</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8490346847294947</v>
+        <v>0.7630161850807529</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8252049586505205</v>
+        <v>0.8123268668058288</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03789922721526721</v>
+        <v>0.02586530967901127</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7682101306745358</v>
+        <v>0.7999305525282765</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7994806042344241</v>
+        <v>0.798511299317751</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8605133589524849</v>
+        <v>0.817884508831439</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.827685010707082</v>
+        <v>0.7855302306915211</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8701356886840756</v>
+        <v>0.8597777426601567</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8160231860916902</v>
+        <v>0.8086470213208156</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02978961818739197</v>
+        <v>0.03262951385801117</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7907374087235542</v>
+        <v>0.7593811517844467</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.827471572600466</v>
+        <v>0.8061713447363559</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8601311972800005</v>
+        <v>0.8200065985401384</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7757582242239992</v>
+        <v>0.7976468267577631</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8260175276304308</v>
+        <v>0.8600291847853738</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8279993175251559</v>
+        <v>0.8165292199912176</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03963272949201607</v>
+        <v>0.04884137377120463</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.793842062193126</v>
+        <v>0.7616407528641572</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7755846745618579</v>
+        <v>0.7633789204206198</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.860415762225361</v>
+        <v>0.8598862347041327</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8284075778666652</v>
+        <v>0.816327773182612</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8817465107787688</v>
+        <v>0.8814124187845668</v>
       </c>
     </row>
     <row r="7">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8419954741168649</v>
+        <v>0.8419413357459821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05187527408279901</v>
+        <v>0.05147781709889671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8412209694404542</v>
+        <v>0.8517184942716858</v>
       </c>
       <c r="E7" t="n">
         <v>0.756633968433629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8701572507599673</v>
+        <v>0.8812080691112947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.828003280576886</v>
+        <v>0.8171924697660753</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9139619013733883</v>
+        <v>0.9029536771472256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8640553429086986</v>
+        <v>0.8596024325052311</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03300848625555496</v>
+        <v>0.03192770070836615</v>
       </c>
       <c r="K7" t="n">
         <v>0.8270167032692771</v>
@@ -1322,7 +1322,7 @@
         <v>0.8279620021555506</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8808416380572578</v>
+        <v>0.8585770860399209</v>
       </c>
       <c r="N7" t="n">
         <v>0.8709677419354839</v>
@@ -1331,19 +1331,19 @@
         <v>0.9134886291259225</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8252465840462987</v>
+        <v>0.8316139843172679</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04704288276541442</v>
+        <v>0.04567796631473559</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8000304100528066</v>
+        <v>0.8220589374004827</v>
       </c>
       <c r="S7" t="n">
         <v>0.7870787846806523</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8303149589643105</v>
+        <v>0.8401234329714804</v>
       </c>
       <c r="U7" t="n">
         <v>0.7942110081329097</v>
@@ -1352,52 +1352,52 @@
         <v>0.9145977584008144</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8409894062204077</v>
+        <v>0.8435653735638207</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03610601058914542</v>
+        <v>0.03945846908330625</v>
       </c>
       <c r="Y7" t="n">
         <v>0.8295613789973716</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.775164952190916</v>
+        <v>0.7755072252225952</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8709061897102811</v>
+        <v>0.8824405782607986</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8602180337112425</v>
+        <v>0.8491433324322363</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8690964764922278</v>
+        <v>0.8811743529061017</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8602931213053973</v>
+        <v>0.8750760578550937</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03301800841502055</v>
+        <v>0.04104328605369267</v>
       </c>
       <c r="AF7" t="n">
         <v>0.8830129036765</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.805988582364294</v>
+        <v>0.8055677619095177</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.8611559139784947</v>
+        <v>0.9034079839646323</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.8481485675034062</v>
+        <v>0.8587319843138891</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.903159639004291</v>
+        <v>0.9246596554109288</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8326997506786389</v>
+        <v>0.8457190001481187</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02408657791928399</v>
+        <v>0.03098750368584828</v>
       </c>
       <c r="AM7" t="n">
         <v>0.8298341558658932</v>
@@ -1406,13 +1406,13 @@
         <v>0.795356024957543</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8289774741387643</v>
+        <v>0.8718124727633402</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8385533994274889</v>
+        <v>0.8495894731634306</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8707776990035054</v>
+        <v>0.8820028739903869</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
@@ -1156,130 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7992955421404832</v>
+        <v>0.8085302072762568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02456917382021785</v>
+        <v>0.0390515635286838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7759412684688143</v>
+        <v>0.7569882676265656</v>
       </c>
       <c r="E6" t="n">
         <v>0.7789183217979441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8179964190150948</v>
+        <v>0.8173729408977245</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7854046051389504</v>
+        <v>0.8182372478694272</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8382170962816125</v>
+        <v>0.8711342581896228</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8166684721988402</v>
+        <v>0.8256457789346012</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02393855611041602</v>
+        <v>0.01209272630147904</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7977082590310615</v>
+        <v>0.8216235142705731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7884897360703812</v>
+        <v>0.8209096459096459</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8076054640195676</v>
+        <v>0.8180666720564853</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8397558015274496</v>
+        <v>0.8179769068832798</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8497831003457411</v>
+        <v>0.849652155553021</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7266662225643733</v>
+        <v>0.7513773768325669</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02464296665336834</v>
+        <v>0.05310457069409973</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7378955264593563</v>
+        <v>0.7290270127950293</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6995666599576723</v>
+        <v>0.6763706634674377</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7343827979103733</v>
+        <v>0.827485368004644</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6984699434137116</v>
+        <v>0.7307229880007221</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7630161850807529</v>
+        <v>0.7932808518950014</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8123268668058288</v>
+        <v>0.8095402314725835</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02586530967901127</v>
+        <v>0.01323351489720702</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7999305525282765</v>
+        <v>0.7881597495340692</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.798511299317751</v>
+        <v>0.8070828896035197</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.817884508831439</v>
+        <v>0.8068226216452928</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7855302306915211</v>
+        <v>0.8176951992844992</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8597777426601567</v>
+        <v>0.827940697295536</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8086470213208156</v>
+        <v>0.8030358157294298</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03262951385801117</v>
+        <v>0.02877332982882458</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7593811517844467</v>
+        <v>0.7701091461729759</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8061713447363559</v>
+        <v>0.7779402669046132</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8200065985401384</v>
+        <v>0.7992824395625754</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7976468267577631</v>
+        <v>0.8180590213800699</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8600291847853738</v>
+        <v>0.8497882046269143</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8165292199912176</v>
+        <v>0.8189970648453558</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.04884137377120463</v>
+        <v>0.046231031292413</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7616407528641572</v>
+        <v>0.7837671870105706</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7633789204206198</v>
+        <v>0.7642065819485175</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.8598862347041327</v>
+        <v>0.8491551294018238</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.816327773182612</v>
+        <v>0.8056723240043461</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8814124187845668</v>
+        <v>0.8921841018615212</v>
       </c>
     </row>
     <row r="7">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8419413357459821</v>
+        <v>0.8460971644411467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05147781709889671</v>
+        <v>0.05013449088806315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8517184942716858</v>
+        <v>0.8410667968338742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.756633968433629</v>
+        <v>0.7662457743102904</v>
       </c>
       <c r="F7" t="n">
         <v>0.8812080691112947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8171924697660753</v>
+        <v>0.828003280576886</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9029536771472256</v>
+        <v>0.9139619013733883</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8596024325052311</v>
+        <v>0.8618252690317654</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03192770070836615</v>
+        <v>0.03216494561268367</v>
       </c>
       <c r="K7" t="n">
         <v>0.8270167032692771</v>
@@ -1322,7 +1322,7 @@
         <v>0.8279620021555506</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8585770860399209</v>
+        <v>0.8696912686725929</v>
       </c>
       <c r="N7" t="n">
         <v>0.8709677419354839</v>
@@ -1331,37 +1331,37 @@
         <v>0.9134886291259225</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8316139843172679</v>
+        <v>0.8313807466572986</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04567796631473559</v>
+        <v>0.04099386412136994</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8220589374004827</v>
+        <v>0.7996616223469558</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7870787846806523</v>
+        <v>0.808845414108572</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8401234329714804</v>
+        <v>0.8513269831642902</v>
       </c>
       <c r="U7" t="n">
         <v>0.7942110081329097</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9145977584008144</v>
+        <v>0.9028587055337645</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8435653735638207</v>
+        <v>0.8499449907477221</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03945846908330625</v>
+        <v>0.03733860504644549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8295613789973716</v>
+        <v>0.8401035523894891</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7755072252225952</v>
+        <v>0.7862047714040123</v>
       </c>
       <c r="AA7" t="n">
         <v>0.8824405782607986</v>
@@ -1370,49 +1370,49 @@
         <v>0.8491433324322363</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8811743529061017</v>
+        <v>0.891832719252074</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8750760578550937</v>
+        <v>0.8689077229551714</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04104328605369267</v>
+        <v>0.04264945786907141</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8830129036765</v>
+        <v>0.8940831774608371</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8055677619095177</v>
+        <v>0.7952772506852204</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9034079839646323</v>
+        <v>0.893185533104888</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.8587319843138891</v>
+        <v>0.8481485675034062</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9246596554109288</v>
+        <v>0.9138440860215054</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8457190001481187</v>
+        <v>0.8351239298215546</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.03098750368584828</v>
+        <v>0.03103274933424498</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8298341558658932</v>
+        <v>0.8411041475390205</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.795356024957543</v>
+        <v>0.7855013878782979</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8718124727633402</v>
+        <v>0.8404567206986562</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8495894731634306</v>
+        <v>0.8263972586553232</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8820028739903869</v>
+        <v>0.882160134336475</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_f1_standard_deviation.xlsx
@@ -1156,130 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8085302072762568</v>
+        <v>0.8319988464678246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0390515635286838</v>
+        <v>0.03516173839978369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7569882676265656</v>
+        <v>0.7802938196555218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7789183217979441</v>
+        <v>0.8071680919831982</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8173729408977245</v>
+        <v>0.8511185305540144</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8182372478694272</v>
+        <v>0.8397558015274496</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8711342581896228</v>
+        <v>0.8816579886189394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8256457789346012</v>
+        <v>0.8129002063521378</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01209272630147904</v>
+        <v>0.035383199264022</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8216235142705731</v>
+        <v>0.7772516921453091</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8209096459096459</v>
+        <v>0.7685225270218438</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8180666720564853</v>
+        <v>0.8401653260524228</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8179769068832798</v>
+        <v>0.8182521109516017</v>
       </c>
       <c r="O6" t="n">
-        <v>0.849652155553021</v>
+        <v>0.8603093755895114</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7513773768325669</v>
+        <v>0.7248313897793925</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05310457069409973</v>
+        <v>0.02755076777127297</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7290270127950293</v>
+        <v>0.6956881094979303</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6763706634674377</v>
+        <v>0.7129774347516282</v>
       </c>
       <c r="T6" t="n">
-        <v>0.827485368004644</v>
+        <v>0.7311625505173892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7307229880007221</v>
+        <v>0.7092674284998682</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7932808518950014</v>
+        <v>0.7750614256301468</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8095402314725835</v>
+        <v>0.7967742207061101</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01323351489720702</v>
+        <v>0.02527860066961275</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7881597495340692</v>
+        <v>0.7546500163990978</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8070828896035197</v>
+        <v>0.7887701156904849</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8068226216452928</v>
+        <v>0.8161909784203634</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8176951992844992</v>
+        <v>0.7961939714061956</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.827940697295536</v>
+        <v>0.8280660216144087</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8030358157294298</v>
+        <v>0.7949131375952623</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02877332982882458</v>
+        <v>0.02277875228516454</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7701091461729759</v>
+        <v>0.7778604203815195</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7779402669046132</v>
+        <v>0.7867177681387196</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7992824395625754</v>
+        <v>0.799009004760278</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8180590213800699</v>
+        <v>0.7738987882612498</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8497882046269143</v>
+        <v>0.837079706434545</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8189970648453558</v>
+        <v>0.8213291381248924</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.046231031292413</v>
+        <v>0.04885307290215209</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7837671870105706</v>
+        <v>0.7849891966003388</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7642065819485175</v>
+        <v>0.7522637176745373</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.8491551294018238</v>
+        <v>0.8501242616112799</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8056723240043461</v>
+        <v>0.8273947897037879</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8921841018615212</v>
+        <v>0.8918737250345183</v>
       </c>
     </row>
     <row r="7">
@@ -1289,19 +1289,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8460971644411467</v>
+        <v>0.8438845433216151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05013449088806315</v>
+        <v>0.04876288202835144</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8410667968338742</v>
+        <v>0.8410545095875442</v>
       </c>
       <c r="E7" t="n">
         <v>0.7662457743102904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8812080691112947</v>
+        <v>0.8701572507599673</v>
       </c>
       <c r="G7" t="n">
         <v>0.828003280576886</v>
@@ -1310,10 +1310,10 @@
         <v>0.9139619013733883</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8618252690317654</v>
+        <v>0.8573795959786967</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03216494561268367</v>
+        <v>0.03144225869023921</v>
       </c>
       <c r="K7" t="n">
         <v>0.8270167032692771</v>
@@ -1322,43 +1322,43 @@
         <v>0.8279620021555506</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8696912686725929</v>
+        <v>0.8585770860399209</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8598535593028118</v>
       </c>
       <c r="O7" t="n">
         <v>0.9134886291259225</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8313807466572986</v>
+        <v>0.8293527408589704</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04099386412136994</v>
+        <v>0.04604049327081808</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7996616223469558</v>
+        <v>0.8116584982766393</v>
       </c>
       <c r="S7" t="n">
-        <v>0.808845414108572</v>
+        <v>0.7870787846806523</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8513269831642902</v>
+        <v>0.8398903417658107</v>
       </c>
       <c r="U7" t="n">
         <v>0.7942110081329097</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9028587055337645</v>
+        <v>0.9139250714388401</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8499449907477221</v>
+        <v>0.8455985765736322</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03733860504644549</v>
+        <v>0.03318404238425834</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8401035523894891</v>
+        <v>0.8411041475390205</v>
       </c>
       <c r="Z7" t="n">
         <v>0.7862047714040123</v>
@@ -1367,43 +1367,43 @@
         <v>0.8824405782607986</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8491433324322363</v>
+        <v>0.8482820220593374</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.891832719252074</v>
+        <v>0.8699613636049927</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8689077229551714</v>
+        <v>0.856295760917458</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04264945786907141</v>
+        <v>0.03516062000954683</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8940831774608371</v>
+        <v>0.862432265743865</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7952772506852204</v>
+        <v>0.7960737244268654</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.893185533104888</v>
+        <v>0.8713783648382389</v>
       </c>
       <c r="AI7" t="n">
         <v>0.8481485675034062</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9138440860215054</v>
+        <v>0.9034458820749144</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8351239298215546</v>
+        <v>0.837194762515152</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.03103274933424498</v>
+        <v>0.02491522337540308</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8411041475390205</v>
+        <v>0.8311148269114019</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7855013878782979</v>
+        <v>0.8062734756283143</v>
       </c>
       <c r="AO7" t="n">
         <v>0.8404567206986562</v>
@@ -1412,7 +1412,7 @@
         <v>0.8263972586553232</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.882160134336475</v>
+        <v>0.8817315306820649</v>
       </c>
     </row>
   </sheetData>
